--- a/Gamma distribution results.xlsx
+++ b/Gamma distribution results.xlsx
@@ -64,148 +64,148 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>(0.07789837,683.98976883)</t>
-  </si>
-  <si>
-    <t>(0.3937397,744.0130501)</t>
-  </si>
-  <si>
-    <t>(0.8319696,511.2032585)</t>
+    <t>(0.07789837,680.3522)</t>
+  </si>
+  <si>
+    <t>(0.3937397,740.2289)</t>
+  </si>
+  <si>
+    <t>(0.8319696,507.5923)</t>
   </si>
   <si>
     <t>(0.05601817,667.99894684)</t>
   </si>
   <si>
-    <t>(0.5025901,557.8937064)</t>
-  </si>
-  <si>
-    <t>(0.5025901,706.9898137)</t>
+    <t>(0.5025901,664.1277)</t>
+  </si>
+  <si>
+    <t>(0.5025901,703.1612)</t>
   </si>
   <si>
     <t>Saliva+Semen.fertile</t>
   </si>
   <si>
-    <t>(0.8689817,193.3636009)</t>
-  </si>
-  <si>
-    <t>(0.5379287,807.5046418)</t>
-  </si>
-  <si>
-    <t>( 0.978077,823.4827944)</t>
-  </si>
-  <si>
-    <t>(0.07466063,531.57593059)</t>
-  </si>
-  <si>
-    <t>(0.8080616,419.1445885)</t>
-  </si>
-  <si>
-    <t>(0.3433205,904.6127566)</t>
+    <t>(0.8689817, 190.4192)</t>
+  </si>
+  <si>
+    <t>(0.5379287,803.7205)</t>
+  </si>
+  <si>
+    <t>( 0.978077,819.8452)</t>
+  </si>
+  <si>
+    <t>(0.07466063,528.4404)</t>
+  </si>
+  <si>
+    <t>(0.8080616,415.6789)</t>
+  </si>
+  <si>
+    <t>(0.3433205,900.8286)</t>
   </si>
   <si>
     <t>Saliva+Vaginal.mucosa</t>
   </si>
   <si>
-    <t>(0.7714286,258.4042970)</t>
-  </si>
-  <si>
-    <t>(0.7327373,704.8650002)</t>
-  </si>
-  <si>
-    <t>(0.9900572 ,707.0143138)</t>
-  </si>
-  <si>
-    <t>(0.8080616,815.1342321)</t>
-  </si>
-  <si>
-    <t>(0.9715398 ,734.7665232)</t>
-  </si>
-  <si>
-    <t>(0.05244755,916.41101352)</t>
+    <t>(0.7714286,255.8393)</t>
+  </si>
+  <si>
+    <t>(0.7327373,701.0149)</t>
+  </si>
+  <si>
+    <t>(0.9900572 ,703.2077)</t>
+  </si>
+  <si>
+    <t>(0.8080616,811.35)</t>
+  </si>
+  <si>
+    <t>(0.9715398 ,731.053)</t>
+  </si>
+  <si>
+    <t>(0.05244755,912.7734)</t>
   </si>
   <si>
     <t>Blood+Nasal.mucosa</t>
   </si>
   <si>
-    <t>(0.02004723,478.94777626)</t>
-  </si>
-  <si>
-    <t>(0.4653527 ,621.8454835)</t>
-  </si>
-  <si>
-    <t>(0.9631071,439.0757479)</t>
-  </si>
-  <si>
-    <t>(0.3433205 ,654.5818488)</t>
-  </si>
-  <si>
-    <t>(0.5751748,250.9110050)</t>
-  </si>
-  <si>
-    <t>(0.01878225,234.95520518)</t>
+    <t>(0.02004723,475.3369)</t>
+  </si>
+  <si>
+    <t>(0.4653527 ,618.2346)</t>
+  </si>
+  <si>
+    <t>(0.9631071,435.4648)</t>
+  </si>
+  <si>
+    <t>(0.3433205 ,650.9443)</t>
+  </si>
+  <si>
+    <t>(0.5751748,248.203)</t>
+  </si>
+  <si>
+    <t>(0.01878225,232.0648)</t>
   </si>
   <si>
     <t>Nasal.mucosa+Saliva</t>
   </si>
   <si>
-    <t>(1.0000,187.7416)</t>
-  </si>
-  <si>
-    <t>(0.8325877,786.1358336)</t>
-  </si>
-  <si>
-    <t>(0.1844162,794.7619091)</t>
-  </si>
-  <si>
-    <t>(0.1428571,353.2081212)</t>
-  </si>
-  <si>
-    <t>(0.7164117 ,175.2567728)</t>
+    <t>(1.0000,185.1025)</t>
+  </si>
+  <si>
+    <t>(0.8325877,782.4723)</t>
+  </si>
+  <si>
+    <t>(0.1844162,791.0483)</t>
+  </si>
+  <si>
+    <t>(0.1428571,350.0301)</t>
+  </si>
+  <si>
+    <t>(0.7164117 ,172.4842)</t>
   </si>
   <si>
     <t>Vaginal.mucosa+Blood</t>
   </si>
   <si>
-    <t>(0.9944576,198.4527228)</t>
-  </si>
-  <si>
-    <t>(0.7869298,233.4237235)</t>
-  </si>
-  <si>
-    <t>( 0.8730159,104.6734119)</t>
-  </si>
-  <si>
-    <t>(0.0530303,283.3726662)</t>
+    <t>(0.9944576,195.6195)</t>
+  </si>
+  <si>
+    <t>(0.7869298,230.6511)</t>
+  </si>
+  <si>
+    <t>( 0.8730159,102.4762)</t>
+  </si>
+  <si>
+    <t>(0.0530303,280.8878)</t>
   </si>
   <si>
     <t>Menstrual.secretion+Blood</t>
   </si>
   <si>
-    <t>(0.9984853,322.8648287)</t>
-  </si>
-  <si>
-    <t>(0.4175237,399.8087139)</t>
-  </si>
-  <si>
-    <t>(1.0000,302.1036)</t>
-  </si>
-  <si>
-    <t>(0.4175237,391.8431534)</t>
-  </si>
-  <si>
-    <t>(0.5751748,419.8600492)</t>
-  </si>
-  <si>
-    <t>(0.3571429,183.3441827)</t>
-  </si>
-  <si>
-    <t>(0.8730159,165.4144843)</t>
-  </si>
-  <si>
-    <t>(0.1678213,320.7541595)</t>
-  </si>
-  <si>
-    <t>(0.7301111,277.2863046)</t>
+    <t>(0.9984853,319.8691)</t>
+  </si>
+  <si>
+    <t>(0.4175237,396.6732)</t>
+  </si>
+  <si>
+    <t>(1.0000,299.2132)</t>
+  </si>
+  <si>
+    <t>(0.4175237,388.7077)</t>
+  </si>
+  <si>
+    <t>(0.5751748,416.6412)</t>
+  </si>
+  <si>
+    <t>(0.3571429,181.0416)</t>
+  </si>
+  <si>
+    <t>(0.8730159,162.7754)</t>
+  </si>
+  <si>
+    <t>(0.1678213,317.7096)</t>
+  </si>
+  <si>
+    <t>(0.7301111,274.3419)</t>
   </si>
 </sst>
 </file>
@@ -236,12 +236,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -274,7 +280,7 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -508,6 +514,8 @@
     <col customWidth="1" min="8" max="8" width="22.0"/>
     <col customWidth="1" min="9" max="9" width="20.63"/>
     <col customWidth="1" min="10" max="10" width="21.88"/>
+    <col customWidth="1" min="11" max="12" width="20.13"/>
+    <col customWidth="1" min="13" max="13" width="19.75"/>
     <col customWidth="1" min="14" max="14" width="22.0"/>
     <col customWidth="1" min="15" max="16" width="20.13"/>
   </cols>

--- a/Gamma distribution results.xlsx
+++ b/Gamma distribution results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>HBB</t>
   </si>
@@ -64,155 +64,167 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>(0.07789837,680.3522)</t>
-  </si>
-  <si>
-    <t>(0.3937397,740.2289)</t>
-  </si>
-  <si>
-    <t>(0.8319696,507.5923)</t>
-  </si>
-  <si>
-    <t>(0.05601817,667.99894684)</t>
-  </si>
-  <si>
-    <t>(0.5025901,664.1277)</t>
-  </si>
-  <si>
-    <t>(0.5025901,703.1612)</t>
+    <t>0.4754535 680.3788509</t>
+  </si>
+  <si>
+    <t>0.3433205 874.9891198</t>
+  </si>
+  <si>
+    <t>0.7164117 567.2127828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL </t>
+  </si>
+  <si>
+    <t>0.09481656 591.95110952</t>
+  </si>
+  <si>
+    <t>0.7810479 547.6850716</t>
+  </si>
+  <si>
+    <t>0.4262935 758.9957812</t>
   </si>
   <si>
     <t>Saliva+Semen.fertile</t>
   </si>
   <si>
-    <t>(0.8689817, 190.4192)</t>
-  </si>
-  <si>
-    <t>(0.5379287,803.7205)</t>
-  </si>
-  <si>
-    <t>( 0.978077,819.8452)</t>
-  </si>
-  <si>
-    <t>(0.07466063,528.4404)</t>
-  </si>
-  <si>
-    <t>(0.8080616,415.6789)</t>
-  </si>
-  <si>
-    <t>(0.3433205,900.8286)</t>
+    <t>0.9894694 230.2169433</t>
+  </si>
+  <si>
+    <t>0.571336 788.721473</t>
+  </si>
+  <si>
+    <t>0.4175237 979.1583405</t>
+  </si>
+  <si>
+    <t>0.7714286 196.4298872</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>0.8325877 536.2384999</t>
+  </si>
+  <si>
+    <t>0.2114761 527.3830507</t>
+  </si>
+  <si>
+    <t>0.2754185 835.1730967</t>
   </si>
   <si>
     <t>Saliva+Vaginal.mucosa</t>
   </si>
   <si>
-    <t>(0.7714286,255.8393)</t>
-  </si>
-  <si>
-    <t>(0.7327373,701.0149)</t>
-  </si>
-  <si>
-    <t>(0.9900572 ,703.2077)</t>
-  </si>
-  <si>
-    <t>(0.8080616,811.35)</t>
-  </si>
-  <si>
-    <t>(0.9715398 ,731.053)</t>
-  </si>
-  <si>
-    <t>(0.05244755,912.7734)</t>
+    <t>0.7301111 193.1864437</t>
+  </si>
+  <si>
+    <t>0.1323939 850.1787375</t>
+  </si>
+  <si>
+    <t>0.2183684 702.1568230</t>
+  </si>
+  <si>
+    <t>0.1844162 884.8001200</t>
+  </si>
+  <si>
+    <t>0.02004723 653.40834649</t>
+  </si>
+  <si>
+    <t>0.9260195 633.9281276</t>
   </si>
   <si>
     <t>Blood+Nasal.mucosa</t>
   </si>
   <si>
-    <t>(0.02004723,475.3369)</t>
-  </si>
-  <si>
-    <t>(0.4653527 ,618.2346)</t>
-  </si>
-  <si>
-    <t>(0.9631071,435.4648)</t>
-  </si>
-  <si>
-    <t>(0.3433205 ,650.9443)</t>
-  </si>
-  <si>
-    <t>(0.5751748,248.203)</t>
-  </si>
-  <si>
-    <t>(0.01878225,232.0648)</t>
+    <t>3.967294e-03 4.800594e+02</t>
+  </si>
+  <si>
+    <t>0.938331 651.838572</t>
+  </si>
+  <si>
+    <t>0.7506071 432.5355043</t>
+  </si>
+  <si>
+    <t>0.2999202 669.7805920</t>
+  </si>
+  <si>
+    <t>0.1428571 271.3489296</t>
+  </si>
+  <si>
+    <t>0.6601399 362.2578598</t>
   </si>
   <si>
     <t>Nasal.mucosa+Saliva</t>
   </si>
   <si>
-    <t>(1.0000,185.1025)</t>
-  </si>
-  <si>
-    <t>(0.8325877,782.4723)</t>
-  </si>
-  <si>
-    <t>(0.1844162,791.0483)</t>
-  </si>
-  <si>
-    <t>(0.1428571,350.0301)</t>
-  </si>
-  <si>
-    <t>(0.7164117 ,172.4842)</t>
+    <t>1.0000 185.6108</t>
+  </si>
+  <si>
+    <t>0.5379287 615.4787375</t>
+  </si>
+  <si>
+    <t>0.6028129 661.9237750</t>
+  </si>
+  <si>
+    <t>0.3517071 311.0112390</t>
+  </si>
+  <si>
+    <t>0.03356643 278.10225999</t>
   </si>
   <si>
     <t>Vaginal.mucosa+Blood</t>
   </si>
   <si>
-    <t>(0.9944576,195.6195)</t>
-  </si>
-  <si>
-    <t>(0.7869298,230.6511)</t>
-  </si>
-  <si>
-    <t>( 0.8730159,102.4762)</t>
-  </si>
-  <si>
-    <t>(0.0530303,280.8878)</t>
+    <t>0.8730159 287.5707276</t>
+  </si>
+  <si>
+    <t>0.9894694 239.3924785</t>
+  </si>
+  <si>
+    <t>1.0000 116.3769</t>
+  </si>
+  <si>
+    <t>0.2557752 184.1045938</t>
+  </si>
+  <si>
+    <t>1.00000 61.65678</t>
   </si>
   <si>
     <t>Menstrual.secretion+Blood</t>
   </si>
   <si>
-    <t>(0.9984853,319.8691)</t>
-  </si>
-  <si>
-    <t>(0.4175237,396.6732)</t>
-  </si>
-  <si>
-    <t>(1.0000,299.2132)</t>
-  </si>
-  <si>
-    <t>(0.4175237,388.7077)</t>
-  </si>
-  <si>
-    <t>(0.5751748,416.6412)</t>
-  </si>
-  <si>
-    <t>(0.3571429,181.0416)</t>
-  </si>
-  <si>
-    <t>(0.8730159,162.7754)</t>
-  </si>
-  <si>
-    <t>(0.1678213,317.7096)</t>
-  </si>
-  <si>
-    <t>(0.7301111,274.3419)</t>
+    <t>0.8325877 326.6428933</t>
+  </si>
+  <si>
+    <t>0.05244755 385.37857696</t>
+  </si>
+  <si>
+    <t>0.9307359 290.5360502</t>
+  </si>
+  <si>
+    <t>0.9894694 398.5603968</t>
+  </si>
+  <si>
+    <t>0.3517071 384.4857462</t>
+  </si>
+  <si>
+    <t>0.1428571 170.2164952</t>
+  </si>
+  <si>
+    <t>1.0000 175.6354</t>
+  </si>
+  <si>
+    <t>0.4791504 309.7004675</t>
+  </si>
+  <si>
+    <t>1.0000 380.2767</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -235,6 +247,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Lucida Console&quot;"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -245,8 +261,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -280,11 +296,14 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -589,58 +608,58 @@
       <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
@@ -652,24 +671,24 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -677,26 +696,26 @@
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>16</v>
@@ -719,28 +738,28 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
@@ -758,7 +777,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>16</v>
@@ -769,28 +788,28 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>16</v>
@@ -819,17 +838,17 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
@@ -839,11 +858,11 @@
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
+      <c r="H7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -869,16 +888,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -889,23 +908,23 @@
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>16</v>
@@ -918,21 +937,21 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
